--- a/tagebuch_oskar.xlsx
+++ b/tagebuch_oskar.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="25">
   <si>
     <t>Wochentag</t>
   </si>
@@ -62,9 +62,6 @@
     <t>TEO-Teamtag</t>
   </si>
   <si>
-    <t>Online Seminar</t>
-  </si>
-  <si>
     <t>Urlaub</t>
   </si>
   <si>
@@ -96,6 +93,12 @@
   </si>
   <si>
     <t>Github-Workflow mit Pycharm testen; Einführung OEP</t>
+  </si>
+  <si>
+    <t>Online Einstiegsseminar</t>
+  </si>
+  <si>
+    <t>Zusammenfassung des Workshops geholfen, Übungen zu GitHub und Python</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
   <dimension ref="B4:R369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -661,7 +664,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -686,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -699,7 +702,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -713,7 +716,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -726,7 +729,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -740,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -753,7 +756,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -767,7 +770,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -838,7 +841,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -862,7 +865,9 @@
       <c r="C17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1047,7 +1052,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -1072,7 +1077,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -1166,7 +1171,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -1191,7 +1196,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -1216,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -1241,7 +1246,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -1266,7 +1271,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -1981,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -2006,7 +2011,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -2031,7 +2036,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
@@ -2056,7 +2061,7 @@
         <v>7</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -2081,7 +2086,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>

--- a/tagebuch_oskar.xlsx
+++ b/tagebuch_oskar.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="27">
   <si>
     <t>Wochentag</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Zusammenfassung des Workshops geholfen, Übungen zu GitHub und Python</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Erstellen und Übertragen von Metadaten für die OEP, Sicherheitseinweisung</t>
   </si>
 </sst>
 </file>
@@ -524,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:R369"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -890,7 +896,9 @@
       <c r="C18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -901,7 +909,9 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
+      <c r="O18" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>

--- a/tagebuch_oskar.xlsx
+++ b/tagebuch_oskar.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="28">
   <si>
     <t>Wochentag</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Erstellen und Übertragen von Metadaten für die OEP, Sicherheitseinweisung</t>
+  </si>
+  <si>
+    <t>Stundenzettel 2021 sortieren, Metadaten für OEP erstellen</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
   <dimension ref="B4:R369"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -923,7 +926,9 @@
       <c r="C19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>

--- a/tagebuch_oskar.xlsx
+++ b/tagebuch_oskar.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="31">
   <si>
     <t>Wochentag</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>Stundenzettel 2021 sortieren, Metadaten für OEP erstellen</t>
+  </si>
+  <si>
+    <t>Metadatenaufgabe beenden, Python lernen</t>
+  </si>
+  <si>
+    <t>Python lernen</t>
+  </si>
+  <si>
+    <t>organisatorische Aufgaben, Wolke-Deck für SLE ausfüllen</t>
   </si>
 </sst>
 </file>
@@ -533,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:R369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -951,7 +960,9 @@
       <c r="C20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1020,7 +1031,9 @@
       <c r="C23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -1043,7 +1056,9 @@
       <c r="C24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>

--- a/tagebuch_oskar.xlsx
+++ b/tagebuch_oskar.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="34">
   <si>
     <t>Wochentag</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>organisatorische Aufgaben, Wolke-Deck für SLE ausfüllen</t>
+  </si>
+  <si>
+    <t>FFF Demo</t>
+  </si>
+  <si>
+    <t>Korrekturen an Metadaten, kleine organisatorische Aufgaben</t>
+  </si>
+  <si>
+    <t>SLE Deck in Nextcloud vervollständigen, Python üben</t>
   </si>
 </sst>
 </file>
@@ -542,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:R369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1131,7 +1140,9 @@
       <c r="C27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -1394,7 +1405,9 @@
       <c r="C38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -1417,7 +1430,9 @@
       <c r="C39" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>

--- a/tagebuch_oskar.xlsx
+++ b/tagebuch_oskar.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="37">
   <si>
     <t>Wochentag</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>SLE Deck in Nextcloud vervollständigen, Python üben</t>
+  </si>
+  <si>
+    <t>Krank</t>
+  </si>
+  <si>
+    <t>Workshop zum Präsentieren</t>
+  </si>
+  <si>
+    <t>Python üben, organisatorisches</t>
   </si>
 </sst>
 </file>
@@ -551,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:R369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1455,7 +1464,9 @@
       <c r="C40" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -1478,7 +1489,9 @@
       <c r="C41" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -1547,7 +1560,9 @@
       <c r="C44" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>

--- a/tagebuch_oskar.xlsx
+++ b/tagebuch_oskar.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="41">
   <si>
     <t>Wochentag</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>Python üben, organisatorisches</t>
+  </si>
+  <si>
+    <t>Tempelhofer Feld</t>
+  </si>
+  <si>
+    <t>Boards für LOD-GEOSS und SIROP ergänzen</t>
+  </si>
+  <si>
+    <t>Nextcloud</t>
+  </si>
+  <si>
+    <t>Teamkärtchen aktualisieren</t>
   </si>
 </sst>
 </file>
@@ -560,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:R369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1087,7 +1099,9 @@
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
-      <c r="O24" s="9"/>
+      <c r="O24" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
@@ -1427,7 +1441,9 @@
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="9"/>
+      <c r="O38" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
@@ -1585,7 +1601,9 @@
       <c r="C45" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="8"/>
+      <c r="D45" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -1608,7 +1626,9 @@
       <c r="C46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -1631,7 +1651,9 @@
       <c r="C47" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="8"/>
+      <c r="D47" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -1642,7 +1664,9 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
-      <c r="O47" s="9"/>
+      <c r="O47" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
       <c r="R47" s="9"/>

--- a/tagebuch_oskar.xlsx
+++ b/tagebuch_oskar.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="56">
   <si>
     <t>Wochentag</t>
   </si>
@@ -147,6 +147,51 @@
   </si>
   <si>
     <t>Teamkärtchen aktualisieren</t>
+  </si>
+  <si>
+    <t>OBS</t>
+  </si>
+  <si>
+    <t>OBS-lernen, Teamkärtchen aktualisieren</t>
+  </si>
+  <si>
+    <t>OBS-lernen, UMAS-Metadaten ergänzen</t>
+  </si>
+  <si>
+    <t>UMAS-Metadaten ergänzen</t>
+  </si>
+  <si>
+    <t>Teamkärtchen aktualisieren, Python lernen</t>
+  </si>
+  <si>
+    <t>OBS-Tutorial</t>
+  </si>
+  <si>
+    <t>UMAS Metadaten, Excelworkshop</t>
+  </si>
+  <si>
+    <t>Excel üben</t>
+  </si>
+  <si>
+    <t>OBS für FNE lernen</t>
+  </si>
+  <si>
+    <t>Women's Career Week vorbereiten</t>
+  </si>
+  <si>
+    <t>bpmn lernen, WCW vorbereiten</t>
+  </si>
+  <si>
+    <t>FNE-Stream vorbereiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python üben </t>
+  </si>
+  <si>
+    <t>Workshop Schreiben, WCW</t>
+  </si>
+  <si>
+    <t>Python mit Samuel</t>
   </si>
 </sst>
 </file>
@@ -572,16 +617,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:R369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="5"/>
+    <col min="1" max="16384" width="10.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -608,7 +653,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <v>44805</v>
       </c>
@@ -633,7 +678,7 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <v>44806</v>
       </c>
@@ -658,7 +703,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="10">
         <v>44807</v>
       </c>
@@ -681,7 +726,7 @@
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="10">
         <v>44808</v>
       </c>
@@ -704,7 +749,7 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <v>44809</v>
       </c>
@@ -729,7 +774,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>44810</v>
       </c>
@@ -756,7 +801,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <v>44811</v>
       </c>
@@ -783,7 +828,7 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <v>44812</v>
       </c>
@@ -810,7 +855,7 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <v>44813</v>
       </c>
@@ -835,7 +880,7 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="10">
         <v>44814</v>
       </c>
@@ -858,7 +903,7 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="10">
         <v>44815</v>
       </c>
@@ -881,7 +926,7 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <v>44816</v>
       </c>
@@ -906,7 +951,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <v>44817</v>
       </c>
@@ -931,7 +976,7 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <v>44818</v>
       </c>
@@ -958,7 +1003,7 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <v>44819</v>
       </c>
@@ -983,7 +1028,7 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <v>44820</v>
       </c>
@@ -1008,7 +1053,7 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="10">
         <v>44821</v>
       </c>
@@ -1031,7 +1076,7 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" s="10">
         <v>44822</v>
       </c>
@@ -1054,7 +1099,7 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <v>44823</v>
       </c>
@@ -1079,7 +1124,7 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <v>44824</v>
       </c>
@@ -1106,7 +1151,7 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
         <v>44825</v>
       </c>
@@ -1131,7 +1176,7 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
         <v>44826</v>
       </c>
@@ -1156,7 +1201,7 @@
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <v>44827</v>
       </c>
@@ -1181,7 +1226,7 @@
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" s="10">
         <v>44828</v>
       </c>
@@ -1204,7 +1249,7 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" s="10">
         <v>44829</v>
       </c>
@@ -1227,7 +1272,7 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30" s="6">
         <v>44830</v>
       </c>
@@ -1252,7 +1297,7 @@
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B31" s="6">
         <v>44831</v>
       </c>
@@ -1277,7 +1322,7 @@
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B32" s="6">
         <v>44832</v>
       </c>
@@ -1302,7 +1347,7 @@
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B33" s="6">
         <v>44833</v>
       </c>
@@ -1327,7 +1372,7 @@
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34" s="6">
         <v>44834</v>
       </c>
@@ -1352,7 +1397,7 @@
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B35" s="10">
         <v>44835</v>
       </c>
@@ -1375,7 +1420,7 @@
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B36" s="10">
         <v>44836</v>
       </c>
@@ -1398,7 +1443,7 @@
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B37" s="10">
         <v>44837</v>
       </c>
@@ -1421,7 +1466,7 @@
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B38" s="6">
         <v>44838</v>
       </c>
@@ -1448,7 +1493,7 @@
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B39" s="6">
         <v>44839</v>
       </c>
@@ -1473,7 +1518,7 @@
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B40" s="6">
         <v>44840</v>
       </c>
@@ -1498,7 +1543,7 @@
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B41" s="6">
         <v>44841</v>
       </c>
@@ -1523,7 +1568,7 @@
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B42" s="10">
         <v>44842</v>
       </c>
@@ -1546,7 +1591,7 @@
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B43" s="10">
         <v>44843</v>
       </c>
@@ -1569,7 +1614,7 @@
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B44" s="6">
         <v>44844</v>
       </c>
@@ -1594,7 +1639,7 @@
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B45" s="6">
         <v>44845</v>
       </c>
@@ -1619,7 +1664,7 @@
       <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B46" s="6">
         <v>44846</v>
       </c>
@@ -1644,7 +1689,7 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B47" s="6">
         <v>44847</v>
       </c>
@@ -1671,14 +1716,16 @@
       <c r="Q47" s="9"/>
       <c r="R47" s="9"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B48" s="6">
         <v>44848</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="8"/>
+      <c r="D48" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -1694,7 +1741,7 @@
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B49" s="10">
         <v>44849</v>
       </c>
@@ -1717,7 +1764,7 @@
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" s="10">
         <v>44850</v>
       </c>
@@ -1740,14 +1787,16 @@
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B51" s="6">
         <v>44851</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="8"/>
+      <c r="D51" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -1758,19 +1807,23 @@
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
-      <c r="O51" s="9"/>
+      <c r="O51" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B52" s="6">
         <v>44852</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="8"/>
+      <c r="D52" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -1786,14 +1839,16 @@
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B53" s="6">
         <v>44853</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="8"/>
+      <c r="D53" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -1809,14 +1864,16 @@
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B54" s="6">
         <v>44854</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="8"/>
+      <c r="D54" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -1832,14 +1889,16 @@
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B55" s="6">
         <v>44855</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="8"/>
+      <c r="D55" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -1855,7 +1914,7 @@
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B56" s="10">
         <v>44856</v>
       </c>
@@ -1878,7 +1937,7 @@
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B57" s="10">
         <v>44857</v>
       </c>
@@ -1901,7 +1960,7 @@
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B58" s="6">
         <v>44858</v>
       </c>
@@ -1924,14 +1983,16 @@
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B59" s="6">
         <v>44859</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="8"/>
+      <c r="D59" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -1947,14 +2008,16 @@
       <c r="Q59" s="9"/>
       <c r="R59" s="9"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B60" s="6">
         <v>44860</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="8"/>
+      <c r="D60" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -1970,14 +2033,16 @@
       <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B61" s="6">
         <v>44861</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="8"/>
+      <c r="D61" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -1993,14 +2058,16 @@
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B62" s="6">
         <v>44862</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="8"/>
+      <c r="D62" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -2016,7 +2083,7 @@
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B63" s="10">
         <v>44863</v>
       </c>
@@ -2039,7 +2106,7 @@
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B64" s="10">
         <v>44864</v>
       </c>
@@ -2062,7 +2129,7 @@
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B65" s="6">
         <v>44865</v>
       </c>
@@ -2087,7 +2154,7 @@
       <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B66" s="6">
         <v>44866</v>
       </c>
@@ -2112,7 +2179,7 @@
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B67" s="6">
         <v>44867</v>
       </c>
@@ -2137,7 +2204,7 @@
       <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B68" s="6">
         <v>44868</v>
       </c>
@@ -2162,7 +2229,7 @@
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B69" s="6">
         <v>44869</v>
       </c>
@@ -2187,7 +2254,7 @@
       <c r="Q69" s="9"/>
       <c r="R69" s="9"/>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B70" s="10">
         <v>44870</v>
       </c>
@@ -2210,7 +2277,7 @@
       <c r="Q70" s="11"/>
       <c r="R70" s="11"/>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B71" s="10">
         <v>44871</v>
       </c>
@@ -2233,14 +2300,16 @@
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B72" s="6">
         <v>44872</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="8"/>
+      <c r="D72" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
@@ -2256,14 +2325,16 @@
       <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B73" s="6">
         <v>44873</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="8"/>
+      <c r="D73" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
@@ -2279,14 +2350,16 @@
       <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B74" s="6">
         <v>44874</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="8"/>
+      <c r="D74" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -2302,14 +2375,16 @@
       <c r="Q74" s="9"/>
       <c r="R74" s="9"/>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B75" s="6">
         <v>44875</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D75" s="8"/>
+      <c r="D75" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
@@ -2325,14 +2400,16 @@
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B76" s="6">
         <v>44876</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="8"/>
+      <c r="D76" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -2348,7 +2425,7 @@
       <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B77" s="10">
         <v>44877</v>
       </c>
@@ -2371,7 +2448,7 @@
       <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B78" s="10">
         <v>44878</v>
       </c>
@@ -2394,14 +2471,16 @@
       <c r="Q78" s="11"/>
       <c r="R78" s="11"/>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B79" s="6">
         <v>44879</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="8"/>
+      <c r="D79" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
@@ -2417,7 +2496,7 @@
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B80" s="6">
         <v>44880</v>
       </c>
@@ -2440,7 +2519,7 @@
       <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
     </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B81" s="6">
         <v>44881</v>
       </c>
@@ -2463,7 +2542,7 @@
       <c r="Q81" s="9"/>
       <c r="R81" s="9"/>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B82" s="6">
         <v>44882</v>
       </c>
@@ -2486,7 +2565,7 @@
       <c r="Q82" s="9"/>
       <c r="R82" s="9"/>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B83" s="6">
         <v>44883</v>
       </c>
@@ -2509,7 +2588,7 @@
       <c r="Q83" s="9"/>
       <c r="R83" s="9"/>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B84" s="10">
         <v>44884</v>
       </c>
@@ -2532,7 +2611,7 @@
       <c r="Q84" s="11"/>
       <c r="R84" s="11"/>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B85" s="10">
         <v>44885</v>
       </c>
@@ -2555,7 +2634,7 @@
       <c r="Q85" s="11"/>
       <c r="R85" s="11"/>
     </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B86" s="6">
         <v>44886</v>
       </c>
@@ -2578,7 +2657,7 @@
       <c r="Q86" s="9"/>
       <c r="R86" s="9"/>
     </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B87" s="6">
         <v>44887</v>
       </c>
@@ -2601,7 +2680,7 @@
       <c r="Q87" s="9"/>
       <c r="R87" s="9"/>
     </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B88" s="6">
         <v>44888</v>
       </c>
@@ -2624,7 +2703,7 @@
       <c r="Q88" s="9"/>
       <c r="R88" s="9"/>
     </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B89" s="6">
         <v>44889</v>
       </c>
@@ -2647,7 +2726,7 @@
       <c r="Q89" s="9"/>
       <c r="R89" s="9"/>
     </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B90" s="6">
         <v>44890</v>
       </c>
@@ -2670,7 +2749,7 @@
       <c r="Q90" s="9"/>
       <c r="R90" s="9"/>
     </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B91" s="10">
         <v>44891</v>
       </c>
@@ -2693,7 +2772,7 @@
       <c r="Q91" s="11"/>
       <c r="R91" s="11"/>
     </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B92" s="10">
         <v>44892</v>
       </c>
@@ -2716,7 +2795,7 @@
       <c r="Q92" s="11"/>
       <c r="R92" s="11"/>
     </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B93" s="6">
         <v>44893</v>
       </c>
@@ -2739,7 +2818,7 @@
       <c r="Q93" s="9"/>
       <c r="R93" s="9"/>
     </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B94" s="6">
         <v>44894</v>
       </c>
@@ -2762,7 +2841,7 @@
       <c r="Q94" s="9"/>
       <c r="R94" s="9"/>
     </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B95" s="6">
         <v>44895</v>
       </c>
@@ -2785,7 +2864,7 @@
       <c r="Q95" s="9"/>
       <c r="R95" s="9"/>
     </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B96" s="6">
         <v>44896</v>
       </c>
@@ -2808,7 +2887,7 @@
       <c r="Q96" s="9"/>
       <c r="R96" s="9"/>
     </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B97" s="6">
         <v>44897</v>
       </c>
@@ -2831,7 +2910,7 @@
       <c r="Q97" s="9"/>
       <c r="R97" s="9"/>
     </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B98" s="10">
         <v>44898</v>
       </c>
@@ -2854,7 +2933,7 @@
       <c r="Q98" s="11"/>
       <c r="R98" s="11"/>
     </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B99" s="10">
         <v>44899</v>
       </c>
@@ -2877,7 +2956,7 @@
       <c r="Q99" s="11"/>
       <c r="R99" s="11"/>
     </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B100" s="6">
         <v>44900</v>
       </c>
@@ -2900,7 +2979,7 @@
       <c r="Q100" s="9"/>
       <c r="R100" s="9"/>
     </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B101" s="6">
         <v>44901</v>
       </c>
@@ -2923,7 +3002,7 @@
       <c r="Q101" s="9"/>
       <c r="R101" s="9"/>
     </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B102" s="6">
         <v>44902</v>
       </c>
@@ -2946,7 +3025,7 @@
       <c r="Q102" s="9"/>
       <c r="R102" s="9"/>
     </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B103" s="6">
         <v>44903</v>
       </c>
@@ -2969,7 +3048,7 @@
       <c r="Q103" s="9"/>
       <c r="R103" s="9"/>
     </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B104" s="6">
         <v>44904</v>
       </c>
@@ -2992,7 +3071,7 @@
       <c r="Q104" s="9"/>
       <c r="R104" s="9"/>
     </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B105" s="10">
         <v>44905</v>
       </c>
@@ -3015,7 +3094,7 @@
       <c r="Q105" s="11"/>
       <c r="R105" s="11"/>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B106" s="10">
         <v>44906</v>
       </c>
@@ -3038,7 +3117,7 @@
       <c r="Q106" s="11"/>
       <c r="R106" s="11"/>
     </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B107" s="6">
         <v>44907</v>
       </c>
@@ -3061,7 +3140,7 @@
       <c r="Q107" s="9"/>
       <c r="R107" s="9"/>
     </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B108" s="6">
         <v>44908</v>
       </c>
@@ -3084,7 +3163,7 @@
       <c r="Q108" s="9"/>
       <c r="R108" s="9"/>
     </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B109" s="6">
         <v>44909</v>
       </c>
@@ -3107,7 +3186,7 @@
       <c r="Q109" s="9"/>
       <c r="R109" s="9"/>
     </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B110" s="6">
         <v>44910</v>
       </c>
@@ -3130,7 +3209,7 @@
       <c r="Q110" s="9"/>
       <c r="R110" s="9"/>
     </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B111" s="6">
         <v>44911</v>
       </c>
@@ -3153,7 +3232,7 @@
       <c r="Q111" s="9"/>
       <c r="R111" s="9"/>
     </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B112" s="10">
         <v>44912</v>
       </c>
@@ -3176,7 +3255,7 @@
       <c r="Q112" s="11"/>
       <c r="R112" s="11"/>
     </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B113" s="10">
         <v>44913</v>
       </c>
@@ -3199,7 +3278,7 @@
       <c r="Q113" s="11"/>
       <c r="R113" s="11"/>
     </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B114" s="6">
         <v>44914</v>
       </c>
@@ -3222,7 +3301,7 @@
       <c r="Q114" s="9"/>
       <c r="R114" s="9"/>
     </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B115" s="6">
         <v>44915</v>
       </c>
@@ -3245,7 +3324,7 @@
       <c r="Q115" s="9"/>
       <c r="R115" s="9"/>
     </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B116" s="6">
         <v>44916</v>
       </c>
@@ -3268,7 +3347,7 @@
       <c r="Q116" s="9"/>
       <c r="R116" s="9"/>
     </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B117" s="6">
         <v>44917</v>
       </c>
@@ -3291,7 +3370,7 @@
       <c r="Q117" s="9"/>
       <c r="R117" s="9"/>
     </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B118" s="6">
         <v>44918</v>
       </c>
@@ -3314,7 +3393,7 @@
       <c r="Q118" s="9"/>
       <c r="R118" s="9"/>
     </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B119" s="10">
         <v>44919</v>
       </c>
@@ -3337,7 +3416,7 @@
       <c r="Q119" s="11"/>
       <c r="R119" s="11"/>
     </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B120" s="10">
         <v>44920</v>
       </c>
@@ -3360,7 +3439,7 @@
       <c r="Q120" s="11"/>
       <c r="R120" s="11"/>
     </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B121" s="10">
         <v>44921</v>
       </c>
@@ -3383,7 +3462,7 @@
       <c r="Q121" s="11"/>
       <c r="R121" s="11"/>
     </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B122" s="6">
         <v>44922</v>
       </c>
@@ -3406,7 +3485,7 @@
       <c r="Q122" s="9"/>
       <c r="R122" s="9"/>
     </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B123" s="6">
         <v>44923</v>
       </c>
@@ -3429,7 +3508,7 @@
       <c r="Q123" s="9"/>
       <c r="R123" s="9"/>
     </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B124" s="6">
         <v>44924</v>
       </c>
@@ -3452,7 +3531,7 @@
       <c r="Q124" s="9"/>
       <c r="R124" s="9"/>
     </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B125" s="6">
         <v>44925</v>
       </c>
@@ -3475,7 +3554,7 @@
       <c r="Q125" s="9"/>
       <c r="R125" s="9"/>
     </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B126" s="10">
         <v>44926</v>
       </c>
@@ -3498,7 +3577,7 @@
       <c r="Q126" s="11"/>
       <c r="R126" s="11"/>
     </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B127" s="10">
         <v>44927</v>
       </c>
@@ -3521,7 +3600,7 @@
       <c r="Q127" s="11"/>
       <c r="R127" s="11"/>
     </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B128" s="6">
         <v>44928</v>
       </c>
@@ -3544,7 +3623,7 @@
       <c r="Q128" s="9"/>
       <c r="R128" s="9"/>
     </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B129" s="6">
         <v>44929</v>
       </c>
@@ -3567,7 +3646,7 @@
       <c r="Q129" s="9"/>
       <c r="R129" s="9"/>
     </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B130" s="6">
         <v>44930</v>
       </c>
@@ -3590,7 +3669,7 @@
       <c r="Q130" s="9"/>
       <c r="R130" s="9"/>
     </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B131" s="6">
         <v>44931</v>
       </c>
@@ -3613,7 +3692,7 @@
       <c r="Q131" s="9"/>
       <c r="R131" s="9"/>
     </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B132" s="6">
         <v>44932</v>
       </c>
@@ -3636,7 +3715,7 @@
       <c r="Q132" s="9"/>
       <c r="R132" s="9"/>
     </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B133" s="10">
         <v>44933</v>
       </c>
@@ -3659,7 +3738,7 @@
       <c r="Q133" s="11"/>
       <c r="R133" s="11"/>
     </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B134" s="10">
         <v>44934</v>
       </c>
@@ -3682,7 +3761,7 @@
       <c r="Q134" s="11"/>
       <c r="R134" s="11"/>
     </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B135" s="6">
         <v>44935</v>
       </c>
@@ -3705,7 +3784,7 @@
       <c r="Q135" s="9"/>
       <c r="R135" s="9"/>
     </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B136" s="6">
         <v>44936</v>
       </c>
@@ -3728,7 +3807,7 @@
       <c r="Q136" s="9"/>
       <c r="R136" s="9"/>
     </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B137" s="6">
         <v>44937</v>
       </c>
@@ -3751,7 +3830,7 @@
       <c r="Q137" s="9"/>
       <c r="R137" s="9"/>
     </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B138" s="6">
         <v>44938</v>
       </c>
@@ -3774,7 +3853,7 @@
       <c r="Q138" s="9"/>
       <c r="R138" s="9"/>
     </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B139" s="6">
         <v>44939</v>
       </c>
@@ -3797,7 +3876,7 @@
       <c r="Q139" s="9"/>
       <c r="R139" s="9"/>
     </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B140" s="10">
         <v>44940</v>
       </c>
@@ -3820,7 +3899,7 @@
       <c r="Q140" s="11"/>
       <c r="R140" s="11"/>
     </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B141" s="10">
         <v>44941</v>
       </c>
@@ -3843,7 +3922,7 @@
       <c r="Q141" s="11"/>
       <c r="R141" s="11"/>
     </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B142" s="6">
         <v>44942</v>
       </c>
@@ -3866,7 +3945,7 @@
       <c r="Q142" s="9"/>
       <c r="R142" s="9"/>
     </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B143" s="6">
         <v>44943</v>
       </c>
@@ -3889,7 +3968,7 @@
       <c r="Q143" s="9"/>
       <c r="R143" s="9"/>
     </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B144" s="6">
         <v>44944</v>
       </c>
@@ -3912,7 +3991,7 @@
       <c r="Q144" s="9"/>
       <c r="R144" s="9"/>
     </row>
-    <row r="145" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B145" s="6">
         <v>44945</v>
       </c>
@@ -3935,7 +4014,7 @@
       <c r="Q145" s="9"/>
       <c r="R145" s="9"/>
     </row>
-    <row r="146" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B146" s="6">
         <v>44946</v>
       </c>
@@ -3958,7 +4037,7 @@
       <c r="Q146" s="9"/>
       <c r="R146" s="9"/>
     </row>
-    <row r="147" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B147" s="10">
         <v>44947</v>
       </c>
@@ -3981,7 +4060,7 @@
       <c r="Q147" s="11"/>
       <c r="R147" s="11"/>
     </row>
-    <row r="148" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B148" s="10">
         <v>44948</v>
       </c>
@@ -4004,7 +4083,7 @@
       <c r="Q148" s="11"/>
       <c r="R148" s="11"/>
     </row>
-    <row r="149" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B149" s="6">
         <v>44949</v>
       </c>
@@ -4027,7 +4106,7 @@
       <c r="Q149" s="9"/>
       <c r="R149" s="9"/>
     </row>
-    <row r="150" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B150" s="6">
         <v>44950</v>
       </c>
@@ -4050,7 +4129,7 @@
       <c r="Q150" s="9"/>
       <c r="R150" s="9"/>
     </row>
-    <row r="151" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B151" s="6">
         <v>44951</v>
       </c>
@@ -4073,7 +4152,7 @@
       <c r="Q151" s="9"/>
       <c r="R151" s="9"/>
     </row>
-    <row r="152" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B152" s="6">
         <v>44952</v>
       </c>
@@ -4096,7 +4175,7 @@
       <c r="Q152" s="9"/>
       <c r="R152" s="9"/>
     </row>
-    <row r="153" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B153" s="6">
         <v>44953</v>
       </c>
@@ -4119,7 +4198,7 @@
       <c r="Q153" s="9"/>
       <c r="R153" s="9"/>
     </row>
-    <row r="154" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B154" s="10">
         <v>44954</v>
       </c>
@@ -4142,7 +4221,7 @@
       <c r="Q154" s="11"/>
       <c r="R154" s="11"/>
     </row>
-    <row r="155" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B155" s="10">
         <v>44955</v>
       </c>
@@ -4165,7 +4244,7 @@
       <c r="Q155" s="11"/>
       <c r="R155" s="11"/>
     </row>
-    <row r="156" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B156" s="6">
         <v>44956</v>
       </c>
@@ -4188,7 +4267,7 @@
       <c r="Q156" s="9"/>
       <c r="R156" s="9"/>
     </row>
-    <row r="157" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B157" s="6">
         <v>44957</v>
       </c>
@@ -4211,7 +4290,7 @@
       <c r="Q157" s="9"/>
       <c r="R157" s="9"/>
     </row>
-    <row r="158" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B158" s="6">
         <v>44958</v>
       </c>
@@ -4234,7 +4313,7 @@
       <c r="Q158" s="9"/>
       <c r="R158" s="9"/>
     </row>
-    <row r="159" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B159" s="6">
         <v>44959</v>
       </c>
@@ -4257,7 +4336,7 @@
       <c r="Q159" s="9"/>
       <c r="R159" s="9"/>
     </row>
-    <row r="160" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B160" s="6">
         <v>44960</v>
       </c>
@@ -4280,7 +4359,7 @@
       <c r="Q160" s="9"/>
       <c r="R160" s="9"/>
     </row>
-    <row r="161" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B161" s="10">
         <v>44961</v>
       </c>
@@ -4303,7 +4382,7 @@
       <c r="Q161" s="11"/>
       <c r="R161" s="11"/>
     </row>
-    <row r="162" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B162" s="10">
         <v>44962</v>
       </c>
@@ -4326,7 +4405,7 @@
       <c r="Q162" s="11"/>
       <c r="R162" s="11"/>
     </row>
-    <row r="163" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B163" s="6">
         <v>44963</v>
       </c>
@@ -4349,7 +4428,7 @@
       <c r="Q163" s="9"/>
       <c r="R163" s="9"/>
     </row>
-    <row r="164" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B164" s="6">
         <v>44964</v>
       </c>
@@ -4372,7 +4451,7 @@
       <c r="Q164" s="9"/>
       <c r="R164" s="9"/>
     </row>
-    <row r="165" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B165" s="6">
         <v>44965</v>
       </c>
@@ -4395,7 +4474,7 @@
       <c r="Q165" s="9"/>
       <c r="R165" s="9"/>
     </row>
-    <row r="166" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B166" s="6">
         <v>44966</v>
       </c>
@@ -4418,7 +4497,7 @@
       <c r="Q166" s="9"/>
       <c r="R166" s="9"/>
     </row>
-    <row r="167" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B167" s="6">
         <v>44967</v>
       </c>
@@ -4441,7 +4520,7 @@
       <c r="Q167" s="9"/>
       <c r="R167" s="9"/>
     </row>
-    <row r="168" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B168" s="10">
         <v>44968</v>
       </c>
@@ -4464,7 +4543,7 @@
       <c r="Q168" s="11"/>
       <c r="R168" s="11"/>
     </row>
-    <row r="169" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B169" s="10">
         <v>44969</v>
       </c>
@@ -4487,7 +4566,7 @@
       <c r="Q169" s="11"/>
       <c r="R169" s="11"/>
     </row>
-    <row r="170" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B170" s="6">
         <v>44970</v>
       </c>
@@ -4510,7 +4589,7 @@
       <c r="Q170" s="9"/>
       <c r="R170" s="9"/>
     </row>
-    <row r="171" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B171" s="6">
         <v>44971</v>
       </c>
@@ -4533,7 +4612,7 @@
       <c r="Q171" s="9"/>
       <c r="R171" s="9"/>
     </row>
-    <row r="172" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B172" s="6">
         <v>44972</v>
       </c>
@@ -4556,7 +4635,7 @@
       <c r="Q172" s="9"/>
       <c r="R172" s="9"/>
     </row>
-    <row r="173" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B173" s="6">
         <v>44973</v>
       </c>
@@ -4579,7 +4658,7 @@
       <c r="Q173" s="9"/>
       <c r="R173" s="9"/>
     </row>
-    <row r="174" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B174" s="6">
         <v>44974</v>
       </c>
@@ -4602,7 +4681,7 @@
       <c r="Q174" s="9"/>
       <c r="R174" s="9"/>
     </row>
-    <row r="175" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B175" s="10">
         <v>44975</v>
       </c>
@@ -4625,7 +4704,7 @@
       <c r="Q175" s="11"/>
       <c r="R175" s="11"/>
     </row>
-    <row r="176" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B176" s="10">
         <v>44976</v>
       </c>
@@ -4648,7 +4727,7 @@
       <c r="Q176" s="11"/>
       <c r="R176" s="11"/>
     </row>
-    <row r="177" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B177" s="6">
         <v>44977</v>
       </c>
@@ -4671,7 +4750,7 @@
       <c r="Q177" s="9"/>
       <c r="R177" s="9"/>
     </row>
-    <row r="178" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B178" s="6">
         <v>44978</v>
       </c>
@@ -4694,7 +4773,7 @@
       <c r="Q178" s="9"/>
       <c r="R178" s="9"/>
     </row>
-    <row r="179" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B179" s="6">
         <v>44979</v>
       </c>
@@ -4717,7 +4796,7 @@
       <c r="Q179" s="9"/>
       <c r="R179" s="9"/>
     </row>
-    <row r="180" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B180" s="6">
         <v>44980</v>
       </c>
@@ -4740,7 +4819,7 @@
       <c r="Q180" s="9"/>
       <c r="R180" s="9"/>
     </row>
-    <row r="181" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B181" s="6">
         <v>44981</v>
       </c>
@@ -4763,7 +4842,7 @@
       <c r="Q181" s="9"/>
       <c r="R181" s="9"/>
     </row>
-    <row r="182" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B182" s="10">
         <v>44982</v>
       </c>
@@ -4786,7 +4865,7 @@
       <c r="Q182" s="11"/>
       <c r="R182" s="11"/>
     </row>
-    <row r="183" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B183" s="10">
         <v>44983</v>
       </c>
@@ -4809,7 +4888,7 @@
       <c r="Q183" s="11"/>
       <c r="R183" s="11"/>
     </row>
-    <row r="184" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B184" s="6">
         <v>44984</v>
       </c>
@@ -4832,7 +4911,7 @@
       <c r="Q184" s="9"/>
       <c r="R184" s="9"/>
     </row>
-    <row r="185" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B185" s="6">
         <v>44985</v>
       </c>
@@ -4855,7 +4934,7 @@
       <c r="Q185" s="9"/>
       <c r="R185" s="9"/>
     </row>
-    <row r="186" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B186" s="6">
         <v>44986</v>
       </c>
@@ -4878,7 +4957,7 @@
       <c r="Q186" s="9"/>
       <c r="R186" s="9"/>
     </row>
-    <row r="187" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B187" s="6">
         <v>44987</v>
       </c>
@@ -4901,7 +4980,7 @@
       <c r="Q187" s="9"/>
       <c r="R187" s="9"/>
     </row>
-    <row r="188" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B188" s="6">
         <v>44988</v>
       </c>
@@ -4924,7 +5003,7 @@
       <c r="Q188" s="9"/>
       <c r="R188" s="9"/>
     </row>
-    <row r="189" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B189" s="10">
         <v>44989</v>
       </c>
@@ -4947,7 +5026,7 @@
       <c r="Q189" s="11"/>
       <c r="R189" s="11"/>
     </row>
-    <row r="190" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B190" s="10">
         <v>44990</v>
       </c>
@@ -4970,7 +5049,7 @@
       <c r="Q190" s="11"/>
       <c r="R190" s="11"/>
     </row>
-    <row r="191" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B191" s="6">
         <v>44991</v>
       </c>
@@ -4993,7 +5072,7 @@
       <c r="Q191" s="9"/>
       <c r="R191" s="9"/>
     </row>
-    <row r="192" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B192" s="6">
         <v>44992</v>
       </c>
@@ -5016,7 +5095,7 @@
       <c r="Q192" s="9"/>
       <c r="R192" s="9"/>
     </row>
-    <row r="193" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B193" s="10">
         <v>44993</v>
       </c>
@@ -5039,7 +5118,7 @@
       <c r="Q193" s="11"/>
       <c r="R193" s="11"/>
     </row>
-    <row r="194" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B194" s="6">
         <v>44994</v>
       </c>
@@ -5062,7 +5141,7 @@
       <c r="Q194" s="9"/>
       <c r="R194" s="9"/>
     </row>
-    <row r="195" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B195" s="6">
         <v>44995</v>
       </c>
@@ -5085,7 +5164,7 @@
       <c r="Q195" s="9"/>
       <c r="R195" s="9"/>
     </row>
-    <row r="196" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B196" s="10">
         <v>44996</v>
       </c>
@@ -5108,7 +5187,7 @@
       <c r="Q196" s="11"/>
       <c r="R196" s="11"/>
     </row>
-    <row r="197" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B197" s="10">
         <v>44997</v>
       </c>
@@ -5131,7 +5210,7 @@
       <c r="Q197" s="11"/>
       <c r="R197" s="11"/>
     </row>
-    <row r="198" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B198" s="6">
         <v>44998</v>
       </c>
@@ -5154,7 +5233,7 @@
       <c r="Q198" s="9"/>
       <c r="R198" s="9"/>
     </row>
-    <row r="199" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B199" s="6">
         <v>44999</v>
       </c>
@@ -5177,7 +5256,7 @@
       <c r="Q199" s="9"/>
       <c r="R199" s="9"/>
     </row>
-    <row r="200" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B200" s="6">
         <v>45000</v>
       </c>
@@ -5200,7 +5279,7 @@
       <c r="Q200" s="9"/>
       <c r="R200" s="9"/>
     </row>
-    <row r="201" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B201" s="6">
         <v>45001</v>
       </c>
@@ -5223,7 +5302,7 @@
       <c r="Q201" s="9"/>
       <c r="R201" s="9"/>
     </row>
-    <row r="202" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B202" s="6">
         <v>45002</v>
       </c>
@@ -5246,7 +5325,7 @@
       <c r="Q202" s="9"/>
       <c r="R202" s="9"/>
     </row>
-    <row r="203" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B203" s="10">
         <v>45003</v>
       </c>
@@ -5269,7 +5348,7 @@
       <c r="Q203" s="11"/>
       <c r="R203" s="11"/>
     </row>
-    <row r="204" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B204" s="10">
         <v>45004</v>
       </c>
@@ -5292,7 +5371,7 @@
       <c r="Q204" s="11"/>
       <c r="R204" s="11"/>
     </row>
-    <row r="205" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B205" s="6">
         <v>45005</v>
       </c>
@@ -5315,7 +5394,7 @@
       <c r="Q205" s="9"/>
       <c r="R205" s="9"/>
     </row>
-    <row r="206" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B206" s="6">
         <v>45006</v>
       </c>
@@ -5338,7 +5417,7 @@
       <c r="Q206" s="9"/>
       <c r="R206" s="9"/>
     </row>
-    <row r="207" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B207" s="6">
         <v>45007</v>
       </c>
@@ -5361,7 +5440,7 @@
       <c r="Q207" s="9"/>
       <c r="R207" s="9"/>
     </row>
-    <row r="208" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B208" s="6">
         <v>45008</v>
       </c>
@@ -5384,7 +5463,7 @@
       <c r="Q208" s="9"/>
       <c r="R208" s="9"/>
     </row>
-    <row r="209" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B209" s="6">
         <v>45009</v>
       </c>
@@ -5407,7 +5486,7 @@
       <c r="Q209" s="9"/>
       <c r="R209" s="9"/>
     </row>
-    <row r="210" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B210" s="10">
         <v>45010</v>
       </c>
@@ -5430,7 +5509,7 @@
       <c r="Q210" s="11"/>
       <c r="R210" s="11"/>
     </row>
-    <row r="211" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B211" s="10">
         <v>45011</v>
       </c>
@@ -5453,7 +5532,7 @@
       <c r="Q211" s="11"/>
       <c r="R211" s="11"/>
     </row>
-    <row r="212" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B212" s="6">
         <v>45012</v>
       </c>
@@ -5476,7 +5555,7 @@
       <c r="Q212" s="9"/>
       <c r="R212" s="9"/>
     </row>
-    <row r="213" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B213" s="6">
         <v>45013</v>
       </c>
@@ -5499,7 +5578,7 @@
       <c r="Q213" s="9"/>
       <c r="R213" s="9"/>
     </row>
-    <row r="214" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B214" s="6">
         <v>45014</v>
       </c>
@@ -5522,7 +5601,7 @@
       <c r="Q214" s="9"/>
       <c r="R214" s="9"/>
     </row>
-    <row r="215" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B215" s="6">
         <v>45015</v>
       </c>
@@ -5545,7 +5624,7 @@
       <c r="Q215" s="9"/>
       <c r="R215" s="9"/>
     </row>
-    <row r="216" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B216" s="6">
         <v>45016</v>
       </c>
@@ -5568,7 +5647,7 @@
       <c r="Q216" s="9"/>
       <c r="R216" s="9"/>
     </row>
-    <row r="217" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B217" s="10">
         <v>45017</v>
       </c>
@@ -5591,7 +5670,7 @@
       <c r="Q217" s="11"/>
       <c r="R217" s="11"/>
     </row>
-    <row r="218" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B218" s="10">
         <v>45018</v>
       </c>
@@ -5614,7 +5693,7 @@
       <c r="Q218" s="11"/>
       <c r="R218" s="11"/>
     </row>
-    <row r="219" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B219" s="6">
         <v>45019</v>
       </c>
@@ -5637,7 +5716,7 @@
       <c r="Q219" s="9"/>
       <c r="R219" s="9"/>
     </row>
-    <row r="220" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B220" s="6">
         <v>45020</v>
       </c>
@@ -5660,7 +5739,7 @@
       <c r="Q220" s="9"/>
       <c r="R220" s="9"/>
     </row>
-    <row r="221" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B221" s="6">
         <v>45021</v>
       </c>
@@ -5683,7 +5762,7 @@
       <c r="Q221" s="9"/>
       <c r="R221" s="9"/>
     </row>
-    <row r="222" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B222" s="6">
         <v>45022</v>
       </c>
@@ -5706,7 +5785,7 @@
       <c r="Q222" s="9"/>
       <c r="R222" s="9"/>
     </row>
-    <row r="223" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B223" s="10">
         <v>45023</v>
       </c>
@@ -5729,7 +5808,7 @@
       <c r="Q223" s="11"/>
       <c r="R223" s="11"/>
     </row>
-    <row r="224" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B224" s="10">
         <v>45024</v>
       </c>
@@ -5752,7 +5831,7 @@
       <c r="Q224" s="11"/>
       <c r="R224" s="11"/>
     </row>
-    <row r="225" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B225" s="10">
         <v>45025</v>
       </c>
@@ -5775,7 +5854,7 @@
       <c r="Q225" s="11"/>
       <c r="R225" s="11"/>
     </row>
-    <row r="226" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B226" s="10">
         <v>45026</v>
       </c>
@@ -5798,7 +5877,7 @@
       <c r="Q226" s="11"/>
       <c r="R226" s="11"/>
     </row>
-    <row r="227" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B227" s="6">
         <v>45027</v>
       </c>
@@ -5821,7 +5900,7 @@
       <c r="Q227" s="9"/>
       <c r="R227" s="9"/>
     </row>
-    <row r="228" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B228" s="6">
         <v>45028</v>
       </c>
@@ -5844,7 +5923,7 @@
       <c r="Q228" s="9"/>
       <c r="R228" s="9"/>
     </row>
-    <row r="229" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B229" s="6">
         <v>45029</v>
       </c>
@@ -5867,7 +5946,7 @@
       <c r="Q229" s="9"/>
       <c r="R229" s="9"/>
     </row>
-    <row r="230" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B230" s="6">
         <v>45030</v>
       </c>
@@ -5890,7 +5969,7 @@
       <c r="Q230" s="9"/>
       <c r="R230" s="9"/>
     </row>
-    <row r="231" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B231" s="10">
         <v>45031</v>
       </c>
@@ -5913,7 +5992,7 @@
       <c r="Q231" s="11"/>
       <c r="R231" s="11"/>
     </row>
-    <row r="232" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B232" s="10">
         <v>45032</v>
       </c>
@@ -5936,7 +6015,7 @@
       <c r="Q232" s="11"/>
       <c r="R232" s="11"/>
     </row>
-    <row r="233" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B233" s="6">
         <v>45033</v>
       </c>
@@ -5959,7 +6038,7 @@
       <c r="Q233" s="9"/>
       <c r="R233" s="9"/>
     </row>
-    <row r="234" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B234" s="6">
         <v>45034</v>
       </c>
@@ -5982,7 +6061,7 @@
       <c r="Q234" s="9"/>
       <c r="R234" s="9"/>
     </row>
-    <row r="235" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B235" s="6">
         <v>45035</v>
       </c>
@@ -6005,7 +6084,7 @@
       <c r="Q235" s="9"/>
       <c r="R235" s="9"/>
     </row>
-    <row r="236" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B236" s="6">
         <v>45036</v>
       </c>
@@ -6028,7 +6107,7 @@
       <c r="Q236" s="9"/>
       <c r="R236" s="9"/>
     </row>
-    <row r="237" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B237" s="6">
         <v>45037</v>
       </c>
@@ -6051,7 +6130,7 @@
       <c r="Q237" s="9"/>
       <c r="R237" s="9"/>
     </row>
-    <row r="238" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B238" s="10">
         <v>45038</v>
       </c>
@@ -6074,7 +6153,7 @@
       <c r="Q238" s="11"/>
       <c r="R238" s="11"/>
     </row>
-    <row r="239" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B239" s="10">
         <v>45039</v>
       </c>
@@ -6097,7 +6176,7 @@
       <c r="Q239" s="11"/>
       <c r="R239" s="11"/>
     </row>
-    <row r="240" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B240" s="6">
         <v>45040</v>
       </c>
@@ -6120,7 +6199,7 @@
       <c r="Q240" s="9"/>
       <c r="R240" s="9"/>
     </row>
-    <row r="241" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B241" s="6">
         <v>45041</v>
       </c>
@@ -6143,7 +6222,7 @@
       <c r="Q241" s="9"/>
       <c r="R241" s="9"/>
     </row>
-    <row r="242" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B242" s="6">
         <v>45042</v>
       </c>
@@ -6166,7 +6245,7 @@
       <c r="Q242" s="9"/>
       <c r="R242" s="9"/>
     </row>
-    <row r="243" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B243" s="6">
         <v>45043</v>
       </c>
@@ -6189,7 +6268,7 @@
       <c r="Q243" s="9"/>
       <c r="R243" s="9"/>
     </row>
-    <row r="244" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B244" s="6">
         <v>45044</v>
       </c>
@@ -6212,7 +6291,7 @@
       <c r="Q244" s="9"/>
       <c r="R244" s="9"/>
     </row>
-    <row r="245" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B245" s="10">
         <v>45045</v>
       </c>
@@ -6235,7 +6314,7 @@
       <c r="Q245" s="11"/>
       <c r="R245" s="11"/>
     </row>
-    <row r="246" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B246" s="10">
         <v>45046</v>
       </c>
@@ -6258,7 +6337,7 @@
       <c r="Q246" s="11"/>
       <c r="R246" s="11"/>
     </row>
-    <row r="247" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B247" s="10">
         <v>45047</v>
       </c>
@@ -6281,7 +6360,7 @@
       <c r="Q247" s="11"/>
       <c r="R247" s="11"/>
     </row>
-    <row r="248" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B248" s="6">
         <v>45048</v>
       </c>
@@ -6304,7 +6383,7 @@
       <c r="Q248" s="9"/>
       <c r="R248" s="9"/>
     </row>
-    <row r="249" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B249" s="6">
         <v>45049</v>
       </c>
@@ -6327,7 +6406,7 @@
       <c r="Q249" s="9"/>
       <c r="R249" s="9"/>
     </row>
-    <row r="250" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B250" s="6">
         <v>45050</v>
       </c>
@@ -6350,7 +6429,7 @@
       <c r="Q250" s="9"/>
       <c r="R250" s="9"/>
     </row>
-    <row r="251" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B251" s="6">
         <v>45051</v>
       </c>
@@ -6373,7 +6452,7 @@
       <c r="Q251" s="9"/>
       <c r="R251" s="9"/>
     </row>
-    <row r="252" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B252" s="10">
         <v>45052</v>
       </c>
@@ -6396,7 +6475,7 @@
       <c r="Q252" s="11"/>
       <c r="R252" s="11"/>
     </row>
-    <row r="253" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B253" s="10">
         <v>45053</v>
       </c>
@@ -6419,7 +6498,7 @@
       <c r="Q253" s="11"/>
       <c r="R253" s="11"/>
     </row>
-    <row r="254" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B254" s="6">
         <v>45054</v>
       </c>
@@ -6442,7 +6521,7 @@
       <c r="Q254" s="9"/>
       <c r="R254" s="9"/>
     </row>
-    <row r="255" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B255" s="6">
         <v>45055</v>
       </c>
@@ -6465,7 +6544,7 @@
       <c r="Q255" s="9"/>
       <c r="R255" s="9"/>
     </row>
-    <row r="256" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B256" s="6">
         <v>45056</v>
       </c>
@@ -6488,7 +6567,7 @@
       <c r="Q256" s="9"/>
       <c r="R256" s="9"/>
     </row>
-    <row r="257" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B257" s="6">
         <v>45057</v>
       </c>
@@ -6511,7 +6590,7 @@
       <c r="Q257" s="9"/>
       <c r="R257" s="9"/>
     </row>
-    <row r="258" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B258" s="6">
         <v>45058</v>
       </c>
@@ -6534,7 +6613,7 @@
       <c r="Q258" s="9"/>
       <c r="R258" s="9"/>
     </row>
-    <row r="259" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B259" s="10">
         <v>45059</v>
       </c>
@@ -6557,7 +6636,7 @@
       <c r="Q259" s="11"/>
       <c r="R259" s="11"/>
     </row>
-    <row r="260" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B260" s="10">
         <v>45060</v>
       </c>
@@ -6580,7 +6659,7 @@
       <c r="Q260" s="11"/>
       <c r="R260" s="11"/>
     </row>
-    <row r="261" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B261" s="6">
         <v>45061</v>
       </c>
@@ -6603,7 +6682,7 @@
       <c r="Q261" s="9"/>
       <c r="R261" s="9"/>
     </row>
-    <row r="262" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B262" s="6">
         <v>45062</v>
       </c>
@@ -6626,7 +6705,7 @@
       <c r="Q262" s="9"/>
       <c r="R262" s="9"/>
     </row>
-    <row r="263" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B263" s="6">
         <v>45063</v>
       </c>
@@ -6649,7 +6728,7 @@
       <c r="Q263" s="9"/>
       <c r="R263" s="9"/>
     </row>
-    <row r="264" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B264" s="10">
         <v>45064</v>
       </c>
@@ -6672,7 +6751,7 @@
       <c r="Q264" s="11"/>
       <c r="R264" s="11"/>
     </row>
-    <row r="265" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B265" s="6">
         <v>45065</v>
       </c>
@@ -6695,7 +6774,7 @@
       <c r="Q265" s="9"/>
       <c r="R265" s="9"/>
     </row>
-    <row r="266" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B266" s="10">
         <v>45066</v>
       </c>
@@ -6718,7 +6797,7 @@
       <c r="Q266" s="11"/>
       <c r="R266" s="11"/>
     </row>
-    <row r="267" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B267" s="10">
         <v>45067</v>
       </c>
@@ -6741,7 +6820,7 @@
       <c r="Q267" s="11"/>
       <c r="R267" s="11"/>
     </row>
-    <row r="268" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B268" s="6">
         <v>45068</v>
       </c>
@@ -6764,7 +6843,7 @@
       <c r="Q268" s="9"/>
       <c r="R268" s="9"/>
     </row>
-    <row r="269" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B269" s="6">
         <v>45069</v>
       </c>
@@ -6787,7 +6866,7 @@
       <c r="Q269" s="9"/>
       <c r="R269" s="9"/>
     </row>
-    <row r="270" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B270" s="6">
         <v>45070</v>
       </c>
@@ -6810,7 +6889,7 @@
       <c r="Q270" s="9"/>
       <c r="R270" s="9"/>
     </row>
-    <row r="271" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B271" s="6">
         <v>45071</v>
       </c>
@@ -6833,7 +6912,7 @@
       <c r="Q271" s="9"/>
       <c r="R271" s="9"/>
     </row>
-    <row r="272" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B272" s="6">
         <v>45072</v>
       </c>
@@ -6856,7 +6935,7 @@
       <c r="Q272" s="9"/>
       <c r="R272" s="9"/>
     </row>
-    <row r="273" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B273" s="10">
         <v>45073</v>
       </c>
@@ -6879,7 +6958,7 @@
       <c r="Q273" s="11"/>
       <c r="R273" s="11"/>
     </row>
-    <row r="274" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B274" s="10">
         <v>45074</v>
       </c>
@@ -6902,7 +6981,7 @@
       <c r="Q274" s="11"/>
       <c r="R274" s="11"/>
     </row>
-    <row r="275" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B275" s="10">
         <v>45075</v>
       </c>
@@ -6925,7 +7004,7 @@
       <c r="Q275" s="11"/>
       <c r="R275" s="11"/>
     </row>
-    <row r="276" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B276" s="6">
         <v>45076</v>
       </c>
@@ -6948,7 +7027,7 @@
       <c r="Q276" s="9"/>
       <c r="R276" s="9"/>
     </row>
-    <row r="277" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B277" s="6">
         <v>45077</v>
       </c>
@@ -6971,7 +7050,7 @@
       <c r="Q277" s="9"/>
       <c r="R277" s="9"/>
     </row>
-    <row r="278" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B278" s="6">
         <v>45078</v>
       </c>
@@ -6994,7 +7073,7 @@
       <c r="Q278" s="9"/>
       <c r="R278" s="9"/>
     </row>
-    <row r="279" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B279" s="6">
         <v>45079</v>
       </c>
@@ -7017,7 +7096,7 @@
       <c r="Q279" s="9"/>
       <c r="R279" s="9"/>
     </row>
-    <row r="280" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B280" s="10">
         <v>45080</v>
       </c>
@@ -7040,7 +7119,7 @@
       <c r="Q280" s="11"/>
       <c r="R280" s="11"/>
     </row>
-    <row r="281" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B281" s="10">
         <v>45081</v>
       </c>
@@ -7063,7 +7142,7 @@
       <c r="Q281" s="11"/>
       <c r="R281" s="11"/>
     </row>
-    <row r="282" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B282" s="6">
         <v>45082</v>
       </c>
@@ -7086,7 +7165,7 @@
       <c r="Q282" s="9"/>
       <c r="R282" s="9"/>
     </row>
-    <row r="283" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B283" s="6">
         <v>45083</v>
       </c>
@@ -7109,7 +7188,7 @@
       <c r="Q283" s="9"/>
       <c r="R283" s="9"/>
     </row>
-    <row r="284" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B284" s="6">
         <v>45084</v>
       </c>
@@ -7132,7 +7211,7 @@
       <c r="Q284" s="9"/>
       <c r="R284" s="9"/>
     </row>
-    <row r="285" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B285" s="6">
         <v>45085</v>
       </c>
@@ -7155,7 +7234,7 @@
       <c r="Q285" s="9"/>
       <c r="R285" s="9"/>
     </row>
-    <row r="286" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B286" s="6">
         <v>45086</v>
       </c>
@@ -7178,7 +7257,7 @@
       <c r="Q286" s="9"/>
       <c r="R286" s="9"/>
     </row>
-    <row r="287" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B287" s="10">
         <v>45087</v>
       </c>
@@ -7201,7 +7280,7 @@
       <c r="Q287" s="11"/>
       <c r="R287" s="11"/>
     </row>
-    <row r="288" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B288" s="10">
         <v>45088</v>
       </c>
@@ -7224,7 +7303,7 @@
       <c r="Q288" s="11"/>
       <c r="R288" s="11"/>
     </row>
-    <row r="289" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B289" s="6">
         <v>45089</v>
       </c>
@@ -7247,7 +7326,7 @@
       <c r="Q289" s="9"/>
       <c r="R289" s="9"/>
     </row>
-    <row r="290" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B290" s="6">
         <v>45090</v>
       </c>
@@ -7270,7 +7349,7 @@
       <c r="Q290" s="9"/>
       <c r="R290" s="9"/>
     </row>
-    <row r="291" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B291" s="6">
         <v>45091</v>
       </c>
@@ -7293,7 +7372,7 @@
       <c r="Q291" s="9"/>
       <c r="R291" s="9"/>
     </row>
-    <row r="292" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B292" s="6">
         <v>45092</v>
       </c>
@@ -7316,7 +7395,7 @@
       <c r="Q292" s="9"/>
       <c r="R292" s="9"/>
     </row>
-    <row r="293" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B293" s="6">
         <v>45093</v>
       </c>
@@ -7339,7 +7418,7 @@
       <c r="Q293" s="9"/>
       <c r="R293" s="9"/>
     </row>
-    <row r="294" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B294" s="10">
         <v>45094</v>
       </c>
@@ -7362,7 +7441,7 @@
       <c r="Q294" s="11"/>
       <c r="R294" s="11"/>
     </row>
-    <row r="295" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B295" s="10">
         <v>45095</v>
       </c>
@@ -7385,7 +7464,7 @@
       <c r="Q295" s="11"/>
       <c r="R295" s="11"/>
     </row>
-    <row r="296" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B296" s="6">
         <v>45096</v>
       </c>
@@ -7408,7 +7487,7 @@
       <c r="Q296" s="9"/>
       <c r="R296" s="9"/>
     </row>
-    <row r="297" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B297" s="6">
         <v>45097</v>
       </c>
@@ -7431,7 +7510,7 @@
       <c r="Q297" s="9"/>
       <c r="R297" s="9"/>
     </row>
-    <row r="298" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B298" s="6">
         <v>45098</v>
       </c>
@@ -7454,7 +7533,7 @@
       <c r="Q298" s="9"/>
       <c r="R298" s="9"/>
     </row>
-    <row r="299" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B299" s="6">
         <v>45099</v>
       </c>
@@ -7477,7 +7556,7 @@
       <c r="Q299" s="9"/>
       <c r="R299" s="9"/>
     </row>
-    <row r="300" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B300" s="6">
         <v>45100</v>
       </c>
@@ -7500,7 +7579,7 @@
       <c r="Q300" s="9"/>
       <c r="R300" s="9"/>
     </row>
-    <row r="301" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B301" s="10">
         <v>45101</v>
       </c>
@@ -7523,7 +7602,7 @@
       <c r="Q301" s="11"/>
       <c r="R301" s="11"/>
     </row>
-    <row r="302" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B302" s="10">
         <v>45102</v>
       </c>
@@ -7546,7 +7625,7 @@
       <c r="Q302" s="11"/>
       <c r="R302" s="11"/>
     </row>
-    <row r="303" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B303" s="6">
         <v>45103</v>
       </c>
@@ -7569,7 +7648,7 @@
       <c r="Q303" s="9"/>
       <c r="R303" s="9"/>
     </row>
-    <row r="304" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B304" s="6">
         <v>45104</v>
       </c>
@@ -7592,7 +7671,7 @@
       <c r="Q304" s="9"/>
       <c r="R304" s="9"/>
     </row>
-    <row r="305" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B305" s="6">
         <v>45105</v>
       </c>
@@ -7615,7 +7694,7 @@
       <c r="Q305" s="9"/>
       <c r="R305" s="9"/>
     </row>
-    <row r="306" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B306" s="6">
         <v>45106</v>
       </c>
@@ -7638,7 +7717,7 @@
       <c r="Q306" s="9"/>
       <c r="R306" s="9"/>
     </row>
-    <row r="307" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B307" s="6">
         <v>45107</v>
       </c>
@@ -7661,7 +7740,7 @@
       <c r="Q307" s="9"/>
       <c r="R307" s="9"/>
     </row>
-    <row r="308" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B308" s="10">
         <v>45108</v>
       </c>
@@ -7684,7 +7763,7 @@
       <c r="Q308" s="11"/>
       <c r="R308" s="11"/>
     </row>
-    <row r="309" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B309" s="10">
         <v>45109</v>
       </c>
@@ -7707,7 +7786,7 @@
       <c r="Q309" s="11"/>
       <c r="R309" s="11"/>
     </row>
-    <row r="310" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B310" s="6">
         <v>45110</v>
       </c>
@@ -7730,7 +7809,7 @@
       <c r="Q310" s="9"/>
       <c r="R310" s="9"/>
     </row>
-    <row r="311" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B311" s="6">
         <v>45111</v>
       </c>
@@ -7753,7 +7832,7 @@
       <c r="Q311" s="9"/>
       <c r="R311" s="9"/>
     </row>
-    <row r="312" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B312" s="6">
         <v>45112</v>
       </c>
@@ -7776,7 +7855,7 @@
       <c r="Q312" s="9"/>
       <c r="R312" s="9"/>
     </row>
-    <row r="313" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B313" s="6">
         <v>45113</v>
       </c>
@@ -7799,7 +7878,7 @@
       <c r="Q313" s="9"/>
       <c r="R313" s="9"/>
     </row>
-    <row r="314" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B314" s="6">
         <v>45114</v>
       </c>
@@ -7822,7 +7901,7 @@
       <c r="Q314" s="9"/>
       <c r="R314" s="9"/>
     </row>
-    <row r="315" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B315" s="10">
         <v>45115</v>
       </c>
@@ -7845,7 +7924,7 @@
       <c r="Q315" s="11"/>
       <c r="R315" s="11"/>
     </row>
-    <row r="316" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B316" s="10">
         <v>45116</v>
       </c>
@@ -7868,7 +7947,7 @@
       <c r="Q316" s="11"/>
       <c r="R316" s="11"/>
     </row>
-    <row r="317" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B317" s="6">
         <v>45117</v>
       </c>
@@ -7891,7 +7970,7 @@
       <c r="Q317" s="9"/>
       <c r="R317" s="9"/>
     </row>
-    <row r="318" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B318" s="6">
         <v>45118</v>
       </c>
@@ -7914,7 +7993,7 @@
       <c r="Q318" s="9"/>
       <c r="R318" s="9"/>
     </row>
-    <row r="319" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B319" s="6">
         <v>45119</v>
       </c>
@@ -7937,7 +8016,7 @@
       <c r="Q319" s="9"/>
       <c r="R319" s="9"/>
     </row>
-    <row r="320" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B320" s="6">
         <v>45120</v>
       </c>
@@ -7960,7 +8039,7 @@
       <c r="Q320" s="9"/>
       <c r="R320" s="9"/>
     </row>
-    <row r="321" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B321" s="6">
         <v>45121</v>
       </c>
@@ -7983,7 +8062,7 @@
       <c r="Q321" s="9"/>
       <c r="R321" s="9"/>
     </row>
-    <row r="322" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B322" s="10">
         <v>45122</v>
       </c>
@@ -8006,7 +8085,7 @@
       <c r="Q322" s="11"/>
       <c r="R322" s="11"/>
     </row>
-    <row r="323" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B323" s="10">
         <v>45123</v>
       </c>
@@ -8029,7 +8108,7 @@
       <c r="Q323" s="11"/>
       <c r="R323" s="11"/>
     </row>
-    <row r="324" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B324" s="6">
         <v>45124</v>
       </c>
@@ -8052,7 +8131,7 @@
       <c r="Q324" s="9"/>
       <c r="R324" s="9"/>
     </row>
-    <row r="325" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B325" s="6">
         <v>45125</v>
       </c>
@@ -8075,7 +8154,7 @@
       <c r="Q325" s="9"/>
       <c r="R325" s="9"/>
     </row>
-    <row r="326" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B326" s="6">
         <v>45126</v>
       </c>
@@ -8098,7 +8177,7 @@
       <c r="Q326" s="9"/>
       <c r="R326" s="9"/>
     </row>
-    <row r="327" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B327" s="6">
         <v>45127</v>
       </c>
@@ -8121,7 +8200,7 @@
       <c r="Q327" s="9"/>
       <c r="R327" s="9"/>
     </row>
-    <row r="328" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B328" s="6">
         <v>45128</v>
       </c>
@@ -8144,7 +8223,7 @@
       <c r="Q328" s="9"/>
       <c r="R328" s="9"/>
     </row>
-    <row r="329" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B329" s="10">
         <v>45129</v>
       </c>
@@ -8167,7 +8246,7 @@
       <c r="Q329" s="11"/>
       <c r="R329" s="11"/>
     </row>
-    <row r="330" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B330" s="10">
         <v>45130</v>
       </c>
@@ -8190,7 +8269,7 @@
       <c r="Q330" s="11"/>
       <c r="R330" s="11"/>
     </row>
-    <row r="331" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B331" s="6">
         <v>45131</v>
       </c>
@@ -8213,7 +8292,7 @@
       <c r="Q331" s="9"/>
       <c r="R331" s="9"/>
     </row>
-    <row r="332" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B332" s="6">
         <v>45132</v>
       </c>
@@ -8236,7 +8315,7 @@
       <c r="Q332" s="9"/>
       <c r="R332" s="9"/>
     </row>
-    <row r="333" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B333" s="6">
         <v>45133</v>
       </c>
@@ -8259,7 +8338,7 @@
       <c r="Q333" s="9"/>
       <c r="R333" s="9"/>
     </row>
-    <row r="334" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B334" s="6">
         <v>45134</v>
       </c>
@@ -8282,7 +8361,7 @@
       <c r="Q334" s="9"/>
       <c r="R334" s="9"/>
     </row>
-    <row r="335" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B335" s="6">
         <v>45135</v>
       </c>
@@ -8305,7 +8384,7 @@
       <c r="Q335" s="9"/>
       <c r="R335" s="9"/>
     </row>
-    <row r="336" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B336" s="10">
         <v>45136</v>
       </c>
@@ -8328,7 +8407,7 @@
       <c r="Q336" s="11"/>
       <c r="R336" s="11"/>
     </row>
-    <row r="337" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B337" s="10">
         <v>45137</v>
       </c>
@@ -8351,7 +8430,7 @@
       <c r="Q337" s="11"/>
       <c r="R337" s="11"/>
     </row>
-    <row r="338" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B338" s="6">
         <v>45138</v>
       </c>
@@ -8374,7 +8453,7 @@
       <c r="Q338" s="9"/>
       <c r="R338" s="9"/>
     </row>
-    <row r="339" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B339" s="6">
         <v>45139</v>
       </c>
@@ -8397,7 +8476,7 @@
       <c r="Q339" s="9"/>
       <c r="R339" s="9"/>
     </row>
-    <row r="340" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B340" s="6">
         <v>45140</v>
       </c>
@@ -8420,7 +8499,7 @@
       <c r="Q340" s="9"/>
       <c r="R340" s="9"/>
     </row>
-    <row r="341" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B341" s="6">
         <v>45141</v>
       </c>
@@ -8443,7 +8522,7 @@
       <c r="Q341" s="9"/>
       <c r="R341" s="9"/>
     </row>
-    <row r="342" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B342" s="6">
         <v>45142</v>
       </c>
@@ -8466,7 +8545,7 @@
       <c r="Q342" s="9"/>
       <c r="R342" s="9"/>
     </row>
-    <row r="343" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B343" s="10">
         <v>45143</v>
       </c>
@@ -8489,7 +8568,7 @@
       <c r="Q343" s="11"/>
       <c r="R343" s="11"/>
     </row>
-    <row r="344" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B344" s="10">
         <v>45144</v>
       </c>
@@ -8512,7 +8591,7 @@
       <c r="Q344" s="11"/>
       <c r="R344" s="11"/>
     </row>
-    <row r="345" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B345" s="6">
         <v>45145</v>
       </c>
@@ -8535,7 +8614,7 @@
       <c r="Q345" s="9"/>
       <c r="R345" s="9"/>
     </row>
-    <row r="346" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B346" s="6">
         <v>45146</v>
       </c>
@@ -8558,7 +8637,7 @@
       <c r="Q346" s="9"/>
       <c r="R346" s="9"/>
     </row>
-    <row r="347" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B347" s="6">
         <v>45147</v>
       </c>
@@ -8581,7 +8660,7 @@
       <c r="Q347" s="9"/>
       <c r="R347" s="9"/>
     </row>
-    <row r="348" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B348" s="6">
         <v>45148</v>
       </c>
@@ -8604,7 +8683,7 @@
       <c r="Q348" s="9"/>
       <c r="R348" s="9"/>
     </row>
-    <row r="349" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B349" s="6">
         <v>45149</v>
       </c>
@@ -8627,7 +8706,7 @@
       <c r="Q349" s="9"/>
       <c r="R349" s="9"/>
     </row>
-    <row r="350" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B350" s="10">
         <v>45150</v>
       </c>
@@ -8650,7 +8729,7 @@
       <c r="Q350" s="11"/>
       <c r="R350" s="11"/>
     </row>
-    <row r="351" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B351" s="10">
         <v>45151</v>
       </c>
@@ -8673,7 +8752,7 @@
       <c r="Q351" s="11"/>
       <c r="R351" s="11"/>
     </row>
-    <row r="352" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B352" s="6">
         <v>45152</v>
       </c>
@@ -8696,7 +8775,7 @@
       <c r="Q352" s="9"/>
       <c r="R352" s="9"/>
     </row>
-    <row r="353" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B353" s="6">
         <v>45153</v>
       </c>
@@ -8719,7 +8798,7 @@
       <c r="Q353" s="9"/>
       <c r="R353" s="9"/>
     </row>
-    <row r="354" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B354" s="6">
         <v>45154</v>
       </c>
@@ -8742,7 +8821,7 @@
       <c r="Q354" s="9"/>
       <c r="R354" s="9"/>
     </row>
-    <row r="355" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B355" s="6">
         <v>45155</v>
       </c>
@@ -8765,7 +8844,7 @@
       <c r="Q355" s="9"/>
       <c r="R355" s="9"/>
     </row>
-    <row r="356" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B356" s="6">
         <v>45156</v>
       </c>
@@ -8788,7 +8867,7 @@
       <c r="Q356" s="9"/>
       <c r="R356" s="9"/>
     </row>
-    <row r="357" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B357" s="10">
         <v>45157</v>
       </c>
@@ -8811,7 +8890,7 @@
       <c r="Q357" s="11"/>
       <c r="R357" s="11"/>
     </row>
-    <row r="358" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B358" s="10">
         <v>45158</v>
       </c>
@@ -8834,7 +8913,7 @@
       <c r="Q358" s="11"/>
       <c r="R358" s="11"/>
     </row>
-    <row r="359" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B359" s="6">
         <v>45159</v>
       </c>
@@ -8857,7 +8936,7 @@
       <c r="Q359" s="9"/>
       <c r="R359" s="9"/>
     </row>
-    <row r="360" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B360" s="6">
         <v>45160</v>
       </c>
@@ -8880,7 +8959,7 @@
       <c r="Q360" s="9"/>
       <c r="R360" s="9"/>
     </row>
-    <row r="361" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B361" s="6">
         <v>45161</v>
       </c>
@@ -8903,7 +8982,7 @@
       <c r="Q361" s="9"/>
       <c r="R361" s="9"/>
     </row>
-    <row r="362" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B362" s="6">
         <v>45162</v>
       </c>
@@ -8926,7 +9005,7 @@
       <c r="Q362" s="9"/>
       <c r="R362" s="9"/>
     </row>
-    <row r="363" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B363" s="6">
         <v>45163</v>
       </c>
@@ -8949,7 +9028,7 @@
       <c r="Q363" s="9"/>
       <c r="R363" s="9"/>
     </row>
-    <row r="364" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B364" s="10">
         <v>45164</v>
       </c>
@@ -8972,7 +9051,7 @@
       <c r="Q364" s="11"/>
       <c r="R364" s="11"/>
     </row>
-    <row r="365" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B365" s="10">
         <v>45165</v>
       </c>
@@ -8995,7 +9074,7 @@
       <c r="Q365" s="11"/>
       <c r="R365" s="11"/>
     </row>
-    <row r="366" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B366" s="6">
         <v>45166</v>
       </c>
@@ -9018,7 +9097,7 @@
       <c r="Q366" s="9"/>
       <c r="R366" s="9"/>
     </row>
-    <row r="367" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B367" s="6">
         <v>45167</v>
       </c>
@@ -9041,7 +9120,7 @@
       <c r="Q367" s="9"/>
       <c r="R367" s="9"/>
     </row>
-    <row r="368" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B368" s="6">
         <v>45168</v>
       </c>
@@ -9064,7 +9143,7 @@
       <c r="Q368" s="9"/>
       <c r="R368" s="9"/>
     </row>
-    <row r="369" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B369" s="6">
         <v>45169</v>
       </c>
